--- a/DMSNewVSale_2025-11-18_22-49.xlsx
+++ b/DMSNewVSale_2025-11-18_22-49.xlsx
@@ -41,15 +41,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -77,9 +92,6 @@
     <t>36.6300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -119,6 +131,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -170,9 +194,6 @@
     <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>89.00</t>
   </si>
   <si>
@@ -200,9 +221,6 @@
     <t>CONCRETA ANTI DANDRUFF SHAMPOO</t>
   </si>
   <si>
-    <t>210.00</t>
-  </si>
-  <si>
     <t>210.0000</t>
   </si>
   <si>
@@ -386,9 +404,6 @@
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -618,9 +633,6 @@
   </si>
   <si>
     <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
   </si>
   <si>
     <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
@@ -1607,7 +1619,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1617,14 +1629,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1633,14 +1645,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1650,14 +1662,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1666,14 +1678,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1683,14 +1695,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1699,14 +1711,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1716,14 +1728,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>15</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1749,14 +1761,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1765,14 +1777,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1782,14 +1794,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1798,14 +1810,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1815,14 +1827,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1855,7 +1867,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1871,7 +1883,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1888,7 +1900,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1897,14 +1909,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1914,14 +1926,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1930,14 +1942,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1947,14 +1959,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1963,14 +1975,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1980,11 +1992,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>15</v>
@@ -1996,14 +2008,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2013,11 +2025,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>15</v>
@@ -2029,7 +2041,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2046,14 +2058,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2062,14 +2074,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2079,14 +2091,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2095,14 +2107,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2112,11 +2124,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>15</v>
@@ -2128,14 +2140,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2145,14 +2157,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2161,14 +2173,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2178,14 +2190,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2194,14 +2206,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2211,14 +2223,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2227,14 +2239,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2244,14 +2256,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2260,31 +2272,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2293,14 +2305,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2310,14 +2322,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2326,28 +2338,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>15</v>
@@ -2359,14 +2371,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2376,14 +2388,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2392,14 +2404,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2409,14 +2421,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2425,14 +2437,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2449,7 +2461,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>101</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2458,14 +2470,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2475,14 +2487,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2491,14 +2503,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2508,14 +2520,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2524,14 +2536,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2541,14 +2553,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>15</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2557,14 +2569,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2574,14 +2586,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2590,14 +2602,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2607,14 +2619,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2623,14 +2635,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2640,14 +2652,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2656,14 +2668,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2673,14 +2685,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2696,7 +2708,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2706,14 +2718,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2722,14 +2734,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2739,11 +2751,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>15</v>
@@ -2755,14 +2767,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2772,11 +2784,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>15</v>
@@ -2788,14 +2800,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2805,14 +2817,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2821,14 +2833,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2838,14 +2850,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2854,28 +2866,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>15</v>
@@ -2887,28 +2899,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>15</v>
@@ -2927,13 +2939,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2944,7 +2956,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2960,24 +2972,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2986,14 +2998,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3003,14 +3015,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3026,7 +3038,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3036,14 +3048,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3059,24 +3071,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3085,14 +3097,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3102,14 +3114,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3118,20 +3130,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3139,7 +3151,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>15</v>
@@ -3151,14 +3163,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3168,14 +3180,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3184,14 +3196,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3201,14 +3213,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3217,14 +3229,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3234,11 +3246,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>15</v>
@@ -3250,14 +3262,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3267,14 +3279,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3290,24 +3302,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3316,31 +3328,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3349,31 +3361,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3382,31 +3394,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>15</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3415,14 +3427,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3432,14 +3444,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3448,14 +3460,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3465,14 +3477,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3488,7 +3500,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3498,11 +3510,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>15</v>
@@ -3514,14 +3526,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3531,14 +3543,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3554,7 +3566,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3564,14 +3576,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3580,31 +3592,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3613,14 +3625,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3630,14 +3642,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3653,21 +3665,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>15</v>
@@ -3679,31 +3691,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3712,14 +3724,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3729,14 +3741,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3745,31 +3757,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3778,14 +3790,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3795,14 +3807,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3811,14 +3823,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3828,11 +3840,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>15</v>
@@ -3844,14 +3856,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3861,14 +3873,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3877,14 +3889,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3894,14 +3906,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3917,7 +3929,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3950,7 +3962,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3960,14 +3972,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3976,31 +3988,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4009,28 +4021,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>15</v>
@@ -4042,31 +4054,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4075,31 +4087,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4108,14 +4120,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4125,14 +4137,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4141,14 +4153,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4158,14 +4170,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4174,14 +4186,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4191,14 +4203,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4207,14 +4219,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4224,14 +4236,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4240,14 +4252,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4257,14 +4269,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4273,31 +4285,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4306,31 +4318,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>138</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4339,31 +4351,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4372,31 +4384,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4405,31 +4417,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>115</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4445,24 +4457,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4471,31 +4483,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4504,31 +4516,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>274</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4537,31 +4549,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>239</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4570,31 +4582,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>15</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4603,31 +4615,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>15</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4636,31 +4648,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>66</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4676,24 +4688,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4702,31 +4714,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4735,31 +4747,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4768,31 +4780,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>115</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4801,20 +4813,20 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4825,7 +4837,7 @@
         <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4841,24 +4853,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4874,24 +4886,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>164</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>165</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4900,31 +4912,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>262</v>
+        <v>34</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4933,31 +4945,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4966,31 +4978,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4999,68 +5011,134 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>302</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>243</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>87</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>292</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
         <v>303</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" ht="26.25" customHeight="1">
-      <c r="N112" s="13">
-        <v>6055.2174999999997</v>
-      </c>
-      <c r="O112" s="13"/>
-      <c r="P112" s="13"/>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
+      <c t="s" r="Q112" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>304</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
         <v>305</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>87</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
         <v>306</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" ht="26.25" customHeight="1">
+      <c r="N114" s="13">
+        <v>6188.9274999999998</v>
+      </c>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>308</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>309</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>310</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5594,10 +5672,20 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="N112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="N114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
